--- a/casos_de_prueba.xlsx
+++ b/casos_de_prueba.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LJG\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LJG\Documents\Proyecto_Final_CoderHouse43870_Gomez\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76944E38-687D-41CE-BEF2-5CE65CD865A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -98,19 +99,58 @@
     <t>Creacion de blog</t>
   </si>
   <si>
-    <t>redicciona a la lista de blog una vez creado el mismo</t>
-  </si>
-  <si>
-    <t>Carga de imagen al blog</t>
-  </si>
-  <si>
-    <t>Luego de cargar la imagen redirreciona a la listas de blog</t>
+    <t>Crear el blog, guardar los datos y la imagen</t>
+  </si>
+  <si>
+    <t>Cambio de password</t>
+  </si>
+  <si>
+    <t>Cambiar la contraseña</t>
+  </si>
+  <si>
+    <t>Cambio de password con funcion (Profile/editarPassword)</t>
+  </si>
+  <si>
+    <t>Toma los datos pero no realiza el cambio de contraseña</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Creancion de un mensaje dentro del blog</t>
+  </si>
+  <si>
+    <t>Añada el mensaje con el nick de su creador</t>
+  </si>
+  <si>
+    <t>Edicion del texto del blog (titulofoto, titulomessage, message)</t>
+  </si>
+  <si>
+    <t>Modificar el texto existente</t>
+  </si>
+  <si>
+    <t>Borrado del blog con el boton eliminar</t>
+  </si>
+  <si>
+    <t>Eliminar el blog con todo su contenido</t>
+  </si>
+  <si>
+    <t>Funcionalidad de links FotografiaBlog, blogs y Crear</t>
+  </si>
+  <si>
+    <t>Cada link redirecciona al area correspondiente</t>
+  </si>
+  <si>
+    <t>Funcionalidad del logout</t>
+  </si>
+  <si>
+    <t>Desloguea al usuario y envia la pagina de inicio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,15 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -181,8 +215,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -464,18 +498,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
@@ -485,169 +519,281 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
-        <v>44827</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4">
+        <v>44812</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="6">
-        <v>44827</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4">
+        <v>44812</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="6">
-        <v>44827</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4">
+        <v>44812</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="6">
-        <v>44827</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4">
+        <v>44812</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5"/>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
